--- a/ui-testsuite/src/main/resources/TestData/Order_APJ_Anniversary_Reconciled.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_APJ_Anniversary_Reconciled.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="140">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>9085513018</t>
+  </si>
+  <si>
+    <t>9344448504</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -485,6 +488,11 @@
       <color rgb="FFFF0000"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1319,7 +1327,7 @@
         <v>111</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T2" s="16" t="s">
         <v>123</v>
@@ -1402,7 +1410,7 @@
         <v>121</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AY2" s="15" t="s">
         <v>87</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_APJ_Anniversary_Reconciled.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_APJ_Anniversary_Reconciled.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="141">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>9344448504</t>
+  </si>
+  <si>
+    <t>3044924556</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -488,6 +491,11 @@
       <color rgb="FFFF0000"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1327,7 +1335,7 @@
         <v>111</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T2" s="16" t="s">
         <v>123</v>
@@ -1410,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AY2" s="15" t="s">
         <v>87</v>
